--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N2">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q2">
-        <v>2909.538064792583</v>
+        <v>16710.57496517273</v>
       </c>
       <c r="R2">
-        <v>2909.538064792583</v>
+        <v>150395.1746865546</v>
       </c>
       <c r="S2">
-        <v>0.0530979348928647</v>
+        <v>0.1476304588174291</v>
       </c>
       <c r="T2">
-        <v>0.0530979348928647</v>
+        <v>0.147630458817429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q3">
-        <v>18.38326735891232</v>
+        <v>109.44644116468</v>
       </c>
       <c r="R3">
-        <v>18.38326735891232</v>
+        <v>985.0179704821202</v>
       </c>
       <c r="S3">
-        <v>0.0003354874593851507</v>
+        <v>0.0009669103761391404</v>
       </c>
       <c r="T3">
-        <v>0.0003354874593851507</v>
+        <v>0.0009669103761391402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N4">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q4">
-        <v>1090.90279979044</v>
+        <v>5090.32352289817</v>
       </c>
       <c r="R4">
-        <v>1090.90279979044</v>
+        <v>45812.91170608353</v>
       </c>
       <c r="S4">
-        <v>0.01990855061792979</v>
+        <v>0.04497073253199346</v>
       </c>
       <c r="T4">
-        <v>0.01990855061792979</v>
+        <v>0.04497073253199346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N5">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q5">
-        <v>121.4061373392763</v>
+        <v>599.445694260805</v>
       </c>
       <c r="R5">
-        <v>121.4061373392763</v>
+        <v>5395.011248347245</v>
       </c>
       <c r="S5">
-        <v>0.002215614655137581</v>
+        <v>0.005295834707321228</v>
       </c>
       <c r="T5">
-        <v>0.002215614655137581</v>
+        <v>0.005295834707321226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N6">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q6">
-        <v>13372.56689838778</v>
+        <v>18117.33785110973</v>
       </c>
       <c r="R6">
-        <v>13372.56689838778</v>
+        <v>163056.0406599876</v>
       </c>
       <c r="S6">
-        <v>0.2440441302738863</v>
+        <v>0.1600585799760994</v>
       </c>
       <c r="T6">
-        <v>0.2440441302738863</v>
+        <v>0.1600585799760994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q7">
-        <v>84.4915815134828</v>
+        <v>118.6600793398622</v>
       </c>
       <c r="R7">
-        <v>84.4915815134828</v>
+        <v>1067.94071405876</v>
       </c>
       <c r="S7">
-        <v>0.001541938408878629</v>
+        <v>0.001048308750163661</v>
       </c>
       <c r="T7">
-        <v>0.001541938408878629</v>
+        <v>0.001048308750163661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N8">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q8">
-        <v>5013.9129803329</v>
+        <v>5518.847270545965</v>
       </c>
       <c r="R8">
-        <v>5013.9129803329</v>
+        <v>49669.62543491369</v>
       </c>
       <c r="S8">
-        <v>0.09150195634480714</v>
+        <v>0.04875654825714102</v>
       </c>
       <c r="T8">
-        <v>0.09150195634480714</v>
+        <v>0.04875654825714102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N9">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q9">
-        <v>557.9963751256387</v>
+        <v>649.9094249569872</v>
       </c>
       <c r="R9">
-        <v>557.9963751256387</v>
+        <v>5849.184824612885</v>
       </c>
       <c r="S9">
-        <v>0.01018321621407894</v>
+        <v>0.005741659206588512</v>
       </c>
       <c r="T9">
-        <v>0.01018321621407894</v>
+        <v>0.005741659206588511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N10">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q10">
-        <v>18175.53320717629</v>
+        <v>43752.52634553873</v>
       </c>
       <c r="R10">
-        <v>18175.53320717629</v>
+        <v>393772.7371098486</v>
       </c>
       <c r="S10">
-        <v>0.3316963921372676</v>
+        <v>0.3865340092890556</v>
       </c>
       <c r="T10">
-        <v>0.3316963921372676</v>
+        <v>0.3865340092890556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q11">
-        <v>114.8380529478072</v>
+        <v>286.5585601012036</v>
       </c>
       <c r="R11">
-        <v>114.8380529478072</v>
+        <v>2579.027040910832</v>
       </c>
       <c r="S11">
-        <v>0.002095749676703648</v>
+        <v>0.002531616763275459</v>
       </c>
       <c r="T11">
-        <v>0.002095749676703648</v>
+        <v>0.002531616763275459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N12">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q12">
-        <v>6814.738154940151</v>
+        <v>13327.7588896305</v>
       </c>
       <c r="R12">
-        <v>6814.738154940151</v>
+        <v>119949.8300066745</v>
       </c>
       <c r="S12">
-        <v>0.1243663134163975</v>
+        <v>0.1177447911867155</v>
       </c>
       <c r="T12">
-        <v>0.1243663134163975</v>
+        <v>0.1177447911867155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N13">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q13">
-        <v>758.4094903127963</v>
+        <v>1569.500964839753</v>
       </c>
       <c r="R13">
-        <v>758.4094903127963</v>
+        <v>14125.50868355778</v>
       </c>
       <c r="S13">
-        <v>0.01384067740032483</v>
+        <v>0.01386583932848509</v>
       </c>
       <c r="T13">
-        <v>0.01384067740032483</v>
+        <v>0.01386583932848509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N14">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q14">
-        <v>4049.918201356802</v>
+        <v>5449.753868238809</v>
       </c>
       <c r="R14">
-        <v>4049.918201356802</v>
+        <v>49047.78481414928</v>
       </c>
       <c r="S14">
-        <v>0.07390942760956841</v>
+        <v>0.04814613893818451</v>
       </c>
       <c r="T14">
-        <v>0.07390942760956841</v>
+        <v>0.04814613893818451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q15">
-        <v>25.58850491704253</v>
+        <v>35.69333594716445</v>
       </c>
       <c r="R15">
-        <v>25.58850491704253</v>
+        <v>321.24002352448</v>
       </c>
       <c r="S15">
-        <v>0.0004669802346056374</v>
+        <v>0.0003153346652396322</v>
       </c>
       <c r="T15">
-        <v>0.0004669802346056374</v>
+        <v>0.0003153346652396322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N16">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q16">
-        <v>1518.477162489833</v>
+        <v>1660.087122514791</v>
       </c>
       <c r="R16">
-        <v>1518.477162489833</v>
+        <v>14940.78410263312</v>
       </c>
       <c r="S16">
-        <v>0.02771161597294137</v>
+        <v>0.01466612753208943</v>
       </c>
       <c r="T16">
-        <v>0.02771161597294137</v>
+        <v>0.01466612753208943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N17">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q17">
-        <v>168.9907175700794</v>
+        <v>195.4948586691644</v>
       </c>
       <c r="R17">
-        <v>168.9907175700794</v>
+        <v>1759.45372802248</v>
       </c>
       <c r="S17">
-        <v>0.003084014685222632</v>
+        <v>0.001727109674079301</v>
       </c>
       <c r="T17">
-        <v>0.003084014685222632</v>
+        <v>0.001727109674079301</v>
       </c>
     </row>
   </sheetData>
